--- a/miseriscraping2/territorio-01.xlsx
+++ b/miseriscraping2/territorio-01.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghp21\Documents\GitHub\MiseriScraping\miseriscraping2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1051,8 +1056,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,11 +1094,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1135,7 +1148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,9 +1180,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,6 +1215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1376,14 +1391,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1429,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1457,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1471,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1485,7 +1507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1499,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1541,7 +1563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1555,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1569,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1583,7 +1605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1597,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1611,7 +1633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1625,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1653,7 +1675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1681,7 +1703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1695,7 +1717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1723,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1737,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1751,7 +1773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1765,7 +1787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1779,7 +1801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1793,7 +1815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1807,7 +1829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1821,7 +1843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1835,7 +1857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1849,7 +1871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1877,7 +1899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1891,7 +1913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1919,7 +1941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1933,7 +1955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1961,7 +1983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1975,7 +1997,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2003,7 +2025,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2017,7 +2039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2031,7 +2053,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2045,7 +2067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2073,7 +2095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2087,7 +2109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2101,7 +2123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2143,7 +2165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2157,7 +2179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2171,7 +2193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2185,7 +2207,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2199,7 +2221,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2227,7 +2249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2241,7 +2263,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2255,7 +2277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2283,7 +2305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2297,7 +2319,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2339,7 +2361,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2381,7 +2403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2395,7 +2417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2423,7 +2445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2437,7 +2459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2451,7 +2473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2465,7 +2487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2479,7 +2501,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2507,7 +2529,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2521,7 +2543,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2535,7 +2557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2549,7 +2571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2563,7 +2585,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2577,7 +2599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2591,7 +2613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2605,7 +2627,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2619,7 +2641,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2633,7 +2655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2647,7 +2669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2661,7 +2683,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2675,7 +2697,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2689,7 +2711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2703,7 +2725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2717,7 +2739,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2731,7 +2753,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2745,7 +2767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2773,7 +2795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2787,7 +2809,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2801,7 +2823,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2815,7 +2837,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2829,7 +2851,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2843,7 +2865,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2857,7 +2879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2871,7 +2893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2885,7 +2907,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2899,7 +2921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2913,7 +2935,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2941,7 +2963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -2955,7 +2977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2969,7 +2991,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2983,7 +3005,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2997,7 +3019,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3011,7 +3033,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3025,7 +3047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3039,7 +3061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3053,7 +3075,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3067,7 +3089,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3081,7 +3103,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3095,7 +3117,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3109,7 +3131,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3123,7 +3145,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3137,7 +3159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3151,7 +3173,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3165,7 +3187,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3179,7 +3201,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3193,7 +3215,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3207,7 +3229,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3221,7 +3243,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3235,7 +3257,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3249,7 +3271,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3263,7 +3285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3277,7 +3299,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3291,7 +3313,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3305,7 +3327,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3319,7 +3341,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3347,7 +3369,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3361,7 +3383,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3375,7 +3397,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3389,7 +3411,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3403,7 +3425,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3417,7 +3439,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3431,7 +3453,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3445,7 +3467,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3459,7 +3481,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3473,7 +3495,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -3487,7 +3509,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3501,7 +3523,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3515,7 +3537,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3529,7 +3551,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3543,7 +3565,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3557,7 +3579,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3571,7 +3593,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -3585,7 +3607,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3599,7 +3621,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3613,7 +3635,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3627,7 +3649,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3641,7 +3663,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -3655,7 +3677,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3669,7 +3691,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3683,7 +3705,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -3697,7 +3719,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3711,7 +3733,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -3725,7 +3747,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3753,7 +3775,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3767,7 +3789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3781,7 +3803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -3795,7 +3817,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
